--- a/results/survey/survey_analysis.xlsx
+++ b/results/survey/survey_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\ICSE-2023\results\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071357D0-A4DE-4119-90B7-B116FF149A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA4CC4-086F-4BDD-B82B-600F48116CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11371" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="148">
   <si>
     <t>Progress</t>
   </si>
@@ -397,21 +397,6 @@
     <t>CF</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>n one</t>
   </si>
   <si>
@@ -455,6 +440,33 @@
   </si>
   <si>
     <t># All responses correct:</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Muito adequada</t>
+  </si>
+  <si>
+    <t>Muito inadequada</t>
+  </si>
+  <si>
+    <t>Ligeiramente adequada</t>
+  </si>
+  <si>
+    <t>Ligeiramente inadequada</t>
   </si>
 </sst>
 </file>
@@ -678,6 +690,12 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,277 +708,11 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2182,56 +1934,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Categories Evaluation (%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2247,7 +1950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Extremely adequate</c:v>
+                  <c:v>Muito adequada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2271,19 +1974,19 @@
                   <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CT</c:v>
+                  <c:v>ET</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC</c:v>
+                  <c:v>CC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BW</c:v>
+                  <c:v>CA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DC</c:v>
+                  <c:v>LC</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SC</c:v>
+                  <c:v>SM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2330,7 +2033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Somewhat adequate</c:v>
+                  <c:v>Ligeiramente adequada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2354,19 +2057,19 @@
                   <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CT</c:v>
+                  <c:v>ET</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC</c:v>
+                  <c:v>CC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BW</c:v>
+                  <c:v>CA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DC</c:v>
+                  <c:v>LC</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SC</c:v>
+                  <c:v>SM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2413,7 +2116,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Somewhat inadequate</c:v>
+                  <c:v>Ligeiramente inadequada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2437,19 +2140,19 @@
                   <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CT</c:v>
+                  <c:v>ET</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC</c:v>
+                  <c:v>CC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BW</c:v>
+                  <c:v>CA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DC</c:v>
+                  <c:v>LC</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SC</c:v>
+                  <c:v>SM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2496,7 +2199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Extremely inadequate</c:v>
+                  <c:v>Muito inadequada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2520,19 +2223,19 @@
                   <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CT</c:v>
+                  <c:v>ET</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC</c:v>
+                  <c:v>CC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BW</c:v>
+                  <c:v>CA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DC</c:v>
+                  <c:v>LC</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SC</c:v>
+                  <c:v>SM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2608,7 +2311,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Categories</a:t>
+                  <a:t>Categorias</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2720,7 +2423,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage</a:t>
+                  <a:t>Porcentagem</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5111,16 +4814,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1365250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5447,38 +5150,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="19.19921875" style="4" customWidth="1"/>
-    <col min="4" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="70" width="15.59765625" customWidth="1"/>
-    <col min="71" max="71" width="18.46484375" customWidth="1"/>
-    <col min="72" max="72" width="19.1328125" customWidth="1"/>
-    <col min="73" max="73" width="19.53125" customWidth="1"/>
-    <col min="74" max="74" width="22.46484375" customWidth="1"/>
-    <col min="75" max="75" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" style="4" customWidth="1"/>
+    <col min="4" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="70" width="15.6328125" customWidth="1"/>
+    <col min="71" max="71" width="18.453125" customWidth="1"/>
+    <col min="72" max="72" width="19.08984375" customWidth="1"/>
+    <col min="73" max="73" width="19.54296875" customWidth="1"/>
+    <col min="74" max="74" width="22.453125" customWidth="1"/>
+    <col min="75" max="75" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.45">
-      <c r="D1" s="29" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="D1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="AY1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="13" t="s">
         <v>83</v>
       </c>
@@ -5501,7 +5204,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -5728,7 +5431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:75" ht="285" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100</v>
       </c>
@@ -5950,10 +5653,10 @@
         <v>78</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>100</v>
       </c>
@@ -6175,10 +5878,10 @@
         <v>78</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>100</v>
       </c>
@@ -6403,7 +6106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -6625,10 +6328,10 @@
         <v>78</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>100</v>
       </c>
@@ -6850,10 +6553,10 @@
         <v>78</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100</v>
       </c>
@@ -7078,7 +6781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>100</v>
       </c>
@@ -7300,10 +7003,10 @@
         <v>78</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
@@ -7525,10 +7228,10 @@
         <v>78</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7750,10 +7453,10 @@
         <v>89</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100</v>
       </c>
@@ -7980,7 +7683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:75" ht="325.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:75" ht="325.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -8207,7 +7910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>100</v>
       </c>
@@ -8429,10 +8132,10 @@
         <v>78</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>100</v>
       </c>
@@ -8654,10 +8357,10 @@
         <v>78</v>
       </c>
       <c r="BW17" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>100</v>
       </c>
@@ -8884,7 +8587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>100</v>
       </c>
@@ -9109,7 +8812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>100</v>
       </c>
@@ -9336,7 +9039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100</v>
       </c>
@@ -9558,10 +9261,10 @@
         <v>78</v>
       </c>
       <c r="BW21" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>100</v>
       </c>
@@ -9788,7 +9491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>100</v>
       </c>
@@ -10015,7 +9718,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>100</v>
       </c>
@@ -10242,7 +9945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>100</v>
       </c>
@@ -10469,7 +10172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>100</v>
       </c>
@@ -10696,7 +10399,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>99</v>
       </c>
@@ -10921,7 +10624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>100</v>
       </c>
@@ -11143,10 +10846,10 @@
         <v>78</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>100</v>
       </c>
@@ -11368,10 +11071,10 @@
         <v>78</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>100</v>
       </c>
@@ -11598,7 +11301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>100</v>
       </c>
@@ -11820,10 +11523,10 @@
         <v>78</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:75" ht="285" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>100</v>
       </c>
@@ -12045,10 +11748,10 @@
         <v>78</v>
       </c>
       <c r="BW32" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>100</v>
       </c>
@@ -12270,10 +11973,10 @@
         <v>78</v>
       </c>
       <c r="BW33" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>100</v>
       </c>
@@ -12495,10 +12198,10 @@
         <v>78</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>100</v>
       </c>
@@ -12720,10 +12423,10 @@
         <v>78</v>
       </c>
       <c r="BW35" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>100</v>
       </c>
@@ -12947,10 +12650,10 @@
         <v>89</v>
       </c>
       <c r="BW36" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>100</v>
       </c>
@@ -13172,10 +12875,10 @@
         <v>78</v>
       </c>
       <c r="BW37" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>100</v>
       </c>
@@ -13402,7 +13105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:75" ht="285" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -13624,10 +13327,10 @@
         <v>78</v>
       </c>
       <c r="BW39" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>100</v>
       </c>
@@ -13854,7 +13557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>100</v>
       </c>
@@ -14076,10 +13779,10 @@
         <v>78</v>
       </c>
       <c r="BW41" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>100</v>
       </c>
@@ -14301,10 +14004,10 @@
         <v>78</v>
       </c>
       <c r="BW42" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>100</v>
       </c>
@@ -14531,7 +14234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>100</v>
       </c>
@@ -14758,7 +14461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>100</v>
       </c>
@@ -14985,7 +14688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>100</v>
       </c>
@@ -15212,7 +14915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>100</v>
       </c>
@@ -15437,7 +15140,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>100</v>
       </c>
@@ -15659,10 +15362,10 @@
         <v>78</v>
       </c>
       <c r="BW48" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:75" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>100</v>
       </c>
@@ -15889,7 +15592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:75" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:75" ht="348" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>96</v>
       </c>
@@ -16114,15 +15817,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>143</v>
+    <row r="51" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.35">
       <c r="C52" s="4">
         <f>COUNTIF(C5:C50, 1)</f>
         <v>18</v>
@@ -16220,18 +15923,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="35.59765625" customWidth="1"/>
+    <col min="2" max="4" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>92</v>
       </c>
@@ -16240,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>81</v>
       </c>
@@ -16249,7 +15952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
@@ -16258,7 +15961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -16267,13 +15970,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -16282,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -16291,7 +15994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
@@ -16300,7 +16003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -16309,13 +16012,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="33"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -16324,7 +16027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -16333,13 +16036,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="34"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -16348,7 +16051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -16357,7 +16060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>120</v>
       </c>
@@ -16366,7 +16069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="27" t="s">
         <v>121</v>
       </c>
@@ -16374,7 +16077,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>92</v>
       </c>
@@ -16385,7 +16088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>81</v>
       </c>
@@ -16396,7 +16099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -16407,7 +16110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -16435,19 +16138,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E493030-D07F-4844-B15C-53B8AC396BAD}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="4" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="21.86328125" customWidth="1"/>
-    <col min="9" max="14" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="9" max="14" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>114</v>
       </c>
@@ -16458,7 +16161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -16471,7 +16174,7 @@
         <v>7.4074074074074066</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -16487,22 +16190,22 @@
         <v>123</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -16515,7 +16218,7 @@
         <v>46.296296296296298</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="I5" s="19">
         <v>31.372549019607842</v>
@@ -16536,7 +16239,7 @@
         <v>35.294117647058826</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -16549,7 +16252,7 @@
         <v>38.888888888888893</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I6" s="19">
         <v>37.254901960784316</v>
@@ -16570,7 +16273,7 @@
         <v>37.254901960784316</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>117</v>
       </c>
@@ -16580,7 +16283,7 @@
       </c>
       <c r="D7" s="19"/>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="I7" s="19">
         <v>15.686274509803921</v>
@@ -16601,10 +16304,10 @@
         <v>19.607843137254903</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="I8" s="19">
         <v>15.686274509803921</v>
@@ -16625,7 +16328,7 @@
         <v>7.8431372549019605</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>111</v>
       </c>
@@ -16636,7 +16339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>75</v>
       </c>
@@ -16649,7 +16352,7 @@
         <v>7.4074074074074066</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>76</v>
       </c>
@@ -16668,7 +16371,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -16687,7 +16390,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>73</v>
       </c>
@@ -16706,7 +16409,7 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>117</v>
       </c>
@@ -16721,10 +16424,10 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>112</v>
       </c>
@@ -16735,7 +16438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -16748,7 +16451,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -16761,7 +16464,7 @@
         <v>9.2592592592592595</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -16774,7 +16477,7 @@
         <v>48.148148148148145</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>73</v>
       </c>
@@ -16787,7 +16490,7 @@
         <v>38.888888888888893</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>117</v>
       </c>
@@ -16796,10 +16499,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>113</v>
       </c>
@@ -16810,7 +16513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>75</v>
       </c>
@@ -16823,7 +16526,7 @@
         <v>3.7037037037037033</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>76</v>
       </c>
@@ -16836,7 +16539,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -16849,7 +16552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>73</v>
       </c>
@@ -16862,7 +16565,7 @@
         <v>35.185185185185183</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>117</v>
       </c>
@@ -16871,10 +16574,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="24" t="s">
         <v>115</v>
       </c>
@@ -16885,7 +16588,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -16898,7 +16601,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>76</v>
       </c>
@@ -16911,7 +16614,7 @@
         <v>7.2727272727272725</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>74</v>
       </c>
@@ -16924,7 +16627,7 @@
         <v>50.909090909090907</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -16937,7 +16640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>117</v>
       </c>
@@ -16946,10 +16649,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="16"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="25" t="s">
         <v>116</v>
       </c>
@@ -16960,7 +16663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -16973,7 +16676,7 @@
         <v>1.8518518518518516</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>76</v>
       </c>
@@ -16986,7 +16689,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -16999,7 +16702,7 @@
         <v>46.296296296296298</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>73</v>
       </c>
@@ -17012,7 +16715,7 @@
         <v>40.74074074074074</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
         <v>117</v>
       </c>
@@ -17036,17 +16739,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.3984375" customWidth="1"/>
+    <col min="1" max="1" width="66.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>

--- a/results/survey/survey_analysis.xlsx
+++ b/results/survey/survey_analysis.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\ICSE-2023\results\survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\FSE-2023\results\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA4CC4-086F-4BDD-B82B-600F48116CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C59C4-2E05-4B99-A445-004FF29A9207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographics" sheetId="3" r:id="rId2"/>
-    <sheet name="Categories" sheetId="4" r:id="rId3"/>
-    <sheet name="Comments" sheetId="2" r:id="rId4"/>
+    <sheet name="Included" sheetId="6" r:id="rId2"/>
+    <sheet name="Questions" sheetId="5" r:id="rId3"/>
+    <sheet name="Categories" sheetId="4" r:id="rId4"/>
+    <sheet name="Demographics" sheetId="3" r:id="rId5"/>
+    <sheet name="Comments" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="205">
   <si>
     <t>Progress</t>
   </si>
@@ -442,38 +444,209 @@
     <t># All responses correct:</t>
   </si>
   <si>
-    <t>ET</t>
+    <t>CF - Q1</t>
   </si>
   <si>
-    <t>CC</t>
+    <t>CF - Q2</t>
   </si>
   <si>
-    <t>CA</t>
+    <t>CF - Q3</t>
   </si>
   <si>
-    <t>LC</t>
+    <t>CF - Q4</t>
   </si>
   <si>
-    <t>SM</t>
+    <t>CF - Q5</t>
   </si>
   <si>
-    <t>Muito adequada</t>
+    <t>CF - Q6</t>
   </si>
   <si>
-    <t>Muito inadequada</t>
+    <t>CF - Q7</t>
   </si>
   <si>
-    <t>Ligeiramente adequada</t>
+    <t>CF - Q8</t>
   </si>
   <si>
-    <t>Ligeiramente inadequada</t>
+    <t>CF - Q9</t>
+  </si>
+  <si>
+    <t>CF - Q10</t>
+  </si>
+  <si>
+    <t>CT - Q1</t>
+  </si>
+  <si>
+    <t>CT - Q2</t>
+  </si>
+  <si>
+    <t>CT - Q3</t>
+  </si>
+  <si>
+    <t>CT - Q4</t>
+  </si>
+  <si>
+    <t>CT - Q5</t>
+  </si>
+  <si>
+    <t>CT - Q6</t>
+  </si>
+  <si>
+    <t>CT - Q7</t>
+  </si>
+  <si>
+    <t>CT - Q8</t>
+  </si>
+  <si>
+    <t>CT - Q9</t>
+  </si>
+  <si>
+    <t>CT - Q10</t>
+  </si>
+  <si>
+    <t>TC - Q1</t>
+  </si>
+  <si>
+    <t>TC - Q2</t>
+  </si>
+  <si>
+    <t>TC - Q3</t>
+  </si>
+  <si>
+    <t>TC - Q4</t>
+  </si>
+  <si>
+    <t>TC - Q5</t>
+  </si>
+  <si>
+    <t>TC - Q6</t>
+  </si>
+  <si>
+    <t>TC - Q7</t>
+  </si>
+  <si>
+    <t>TC - Q8</t>
+  </si>
+  <si>
+    <t>TC - Q9</t>
+  </si>
+  <si>
+    <t>TC - Q10</t>
+  </si>
+  <si>
+    <t>BW - Q1</t>
+  </si>
+  <si>
+    <t>BW - Q2</t>
+  </si>
+  <si>
+    <t>BW - Q3</t>
+  </si>
+  <si>
+    <t>BW - Q4</t>
+  </si>
+  <si>
+    <t>BW - Q5</t>
+  </si>
+  <si>
+    <t>BW - Q6</t>
+  </si>
+  <si>
+    <t>BW - Q7</t>
+  </si>
+  <si>
+    <t>BW - Q8</t>
+  </si>
+  <si>
+    <t>BW - Q9</t>
+  </si>
+  <si>
+    <t>BW - Q10</t>
+  </si>
+  <si>
+    <t>DC - Q1</t>
+  </si>
+  <si>
+    <t>DC - Q2</t>
+  </si>
+  <si>
+    <t>DC - Q3</t>
+  </si>
+  <si>
+    <t>DC - Q4</t>
+  </si>
+  <si>
+    <t>DC - Q5</t>
+  </si>
+  <si>
+    <t>DC - Q6</t>
+  </si>
+  <si>
+    <t>DC - Q7</t>
+  </si>
+  <si>
+    <t>DC - Q8</t>
+  </si>
+  <si>
+    <t>DC - Q9</t>
+  </si>
+  <si>
+    <t>DC - Q10</t>
+  </si>
+  <si>
+    <t>SC - Q1</t>
+  </si>
+  <si>
+    <t>SC - Q2</t>
+  </si>
+  <si>
+    <t>SC - Q3</t>
+  </si>
+  <si>
+    <t>SC - Q4</t>
+  </si>
+  <si>
+    <t>SC - Q5</t>
+  </si>
+  <si>
+    <t>SC - Q6</t>
+  </si>
+  <si>
+    <t>SC - Q7</t>
+  </si>
+  <si>
+    <t>SC - Q8</t>
+  </si>
+  <si>
+    <t>SC - Q9</t>
+  </si>
+  <si>
+    <t>SC - Q10</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>% Inadequate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -490,6 +663,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -639,10 +819,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -699,6 +880,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,11 +892,33 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -843,6 +1049,146 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -871,6 +1217,649 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Categories!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extremely adequate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Categories!$I$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Categories!$I$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.372549019607842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.058823529411761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.215686274509807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6963-46E9-8E57-F9F901E57249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Categories!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat adequate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Categories!$I$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Categories!$I$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.254901960784316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.254901960784316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.137254901960787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.254901960784316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6963-46E9-8E57-F9F901E57249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Categories!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Somewhat inadequate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Categories!$I$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Categories!$I$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.686274509803921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.568627450980394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.568627450980394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.686274509803921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.607843137254903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6963-46E9-8E57-F9F901E57249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Categories!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extremely inadequate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF2121"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Categories!$I$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Categories!$I$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.686274509803921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8431372549019605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8431372549019605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8431372549019605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8823529411764701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8431372549019605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6963-46E9-8E57-F9F901E57249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="334517200"/>
+        <c:axId val="376753840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334517200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Categorias</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376753840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376753840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Porcentagem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334517200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1170,7 +2159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1468,7 +2457,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1920,650 +2909,44 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Categories!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Muito adequada</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Categories!$I$4:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ET</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Categories!$I$5:$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>31.372549019607842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.294117647058826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.058823529411761</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.215686274509807</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.294117647058826</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6963-46E9-8E57-F9F901E57249}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Categories!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ligeiramente adequada</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Categories!$I$4:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ET</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Categories!$I$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>37.254901960784316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.294117647058826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.254901960784316</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.411764705882355</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.137254901960787</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.254901960784316</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6963-46E9-8E57-F9F901E57249}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Categories!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ligeiramente inadequada</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Categories!$I$4:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ET</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Categories!$I$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15.686274509803921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.568627450980394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.568627450980394</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.686274509803921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.76470588235294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.607843137254903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6963-46E9-8E57-F9F901E57249}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Categories!$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Muito inadequada</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF2121"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Categories!$I$4:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ET</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Categories!$I$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>15.686274509803921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8431372549019605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8431372549019605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8431372549019605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8823529411764701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8431372549019605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6963-46E9-8E57-F9F901E57249}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="334517200"/>
-        <c:axId val="376753840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="334517200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Categorias</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376753840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="376753840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Porcentagem</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="334517200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -2600,13 +2983,13 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2646,45 +3029,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2888,22 +3234,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3008,8 +3355,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3141,19 +3488,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4193,7 +4541,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4397,23 +4745,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4518,8 +4865,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4651,20 +4998,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4698,6 +5044,47 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1793875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC70C89-6E82-4E58-91A1-CB48BC25316B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4802,47 +5189,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1365250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC70C89-6E82-4E58-91A1-CB48BC25316B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5151,37 +5497,37 @@
   <dimension ref="A1:BW52"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:I2"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="19.1796875" style="4" customWidth="1"/>
-    <col min="4" max="9" width="12.6328125" customWidth="1"/>
-    <col min="10" max="70" width="15.6328125" customWidth="1"/>
-    <col min="71" max="71" width="18.453125" customWidth="1"/>
-    <col min="72" max="72" width="19.08984375" customWidth="1"/>
-    <col min="73" max="73" width="19.54296875" customWidth="1"/>
-    <col min="74" max="74" width="22.453125" customWidth="1"/>
-    <col min="75" max="75" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="70" width="15.5703125" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" customWidth="1"/>
+    <col min="72" max="72" width="19.140625" customWidth="1"/>
+    <col min="73" max="73" width="19.5703125" customWidth="1"/>
+    <col min="74" max="74" width="22.42578125" customWidth="1"/>
+    <col min="75" max="75" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="D1" s="31" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="D1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="AY1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="13" t="s">
         <v>83</v>
       </c>
@@ -5204,7 +5550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -5656,7 +6002,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -5881,7 +6227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -6106,7 +6452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -6331,7 +6677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -6556,7 +6902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -6781,7 +7127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -7006,7 +7352,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -7231,7 +7577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7456,7 +7802,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
@@ -7683,7 +8029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:75" ht="325.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -7910,7 +8256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -8135,7 +8481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -8360,7 +8706,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -8587,7 +8933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -8812,7 +9158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -9039,7 +9385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -9264,7 +9610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -9491,7 +9837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -9718,7 +10064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>100</v>
       </c>
@@ -9945,7 +10291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>100</v>
       </c>
@@ -10172,7 +10518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>100</v>
       </c>
@@ -10399,7 +10745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>99</v>
       </c>
@@ -10624,7 +10970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -10849,7 +11195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100</v>
       </c>
@@ -11074,7 +11420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>100</v>
       </c>
@@ -11301,7 +11647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>100</v>
       </c>
@@ -11526,7 +11872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>100</v>
       </c>
@@ -11751,7 +12097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>100</v>
       </c>
@@ -11976,7 +12322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100</v>
       </c>
@@ -12201,7 +12547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>100</v>
       </c>
@@ -12426,7 +12772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100</v>
       </c>
@@ -12653,7 +12999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>100</v>
       </c>
@@ -12878,7 +13224,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100</v>
       </c>
@@ -13105,7 +13451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -13330,7 +13676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>100</v>
       </c>
@@ -13557,7 +13903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>100</v>
       </c>
@@ -13782,7 +14128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -14007,7 +14353,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>100</v>
       </c>
@@ -14234,7 +14580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100</v>
       </c>
@@ -14461,7 +14807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>100</v>
       </c>
@@ -14688,7 +15034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
@@ -14915,7 +15261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>100</v>
       </c>
@@ -15140,7 +15486,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>100</v>
       </c>
@@ -15365,7 +15711,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:75" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:75" ht="405" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
@@ -15592,7 +15938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:75" ht="348" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:75" ht="390" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96</v>
       </c>
@@ -15817,7 +16163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="29" t="s">
         <v>137</v>
       </c>
@@ -15825,7 +16171,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="C52" s="4">
         <f>COUNTIF(C5:C50, 1)</f>
         <v>18</v>
@@ -15840,47 +16186,47 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576 E51:I51">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E50 E52:E1048576">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F50 F52:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G50 G52:G1048576">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H50 H52:H1048576">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>$H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I50 I52:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:AY1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>$AY$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>$R$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="equal">
@@ -15888,22 +16234,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15916,6 +16262,6304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB695A-2D5A-4559-9430-2A6FE5BEF048}">
+  <dimension ref="A1:BW23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="70" width="15.5703125" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" customWidth="1"/>
+    <col min="72" max="72" width="19.140625" customWidth="1"/>
+    <col min="73" max="73" width="19.5703125" customWidth="1"/>
+    <col min="74" max="74" width="22.42578125" customWidth="1"/>
+    <col min="75" max="75" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="D1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="AY1" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>721</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>998</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>430</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>961</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1107</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>676</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>883</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>2160</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>515</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>746</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>736</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>278</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>844</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>612</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:75" ht="405" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>895</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:75" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <f>COUNTIF(C5:C21, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" s="4">
+        <f>COUNTIFS(D5:D21, "*Defines the set of steps*",  E5:E21, "*References a set of*", F5:F21, "*Relates information on how a newcomer*", G5:G21, "*Determines the steps that a newcomer*", H5:H21, "*Includes information describing how*", I5:I21, "*Represents information about how*")</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E22:I22 D1:D1048576">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E1048576 E1:E21">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F1048576 F1:F21">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$F$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G1048576 G1:G21">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>$G$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H1048576 H1:H21">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$H$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I1048576 I1:I21">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY1:AY1048576">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>$AY$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>$R$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>$S$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F724C150-67F0-4BC0-81CB-5D017718BE88}">
+  <dimension ref="A2:BJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BJ7" sqref="BJ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIFS(Included!J5:J49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS(Included!K5:K49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Included!L5:L49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Included!M5:M49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Included!N5:N49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Included!O5:O49, "Extremely Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS(Included!P5:P49, "Extremely Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(Included!Q5:Q49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIFS(Included!R5:R49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS(Included!S5:S49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS(Included!T5:T49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIFS(Included!U5:U49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIFS(Included!V5:V49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIFS(Included!W5:W49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIFS(Included!X5:X49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIFS(Included!Y5:Y49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>COUNTIFS(Included!Z5:Z49, "Extremely Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>COUNTIFS(Included!AA5:AA49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>COUNTIFS(Included!AB5:AB49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>COUNTIFS(Included!AC5:AC49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>COUNTIFS(Included!AD5:AD49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>COUNTIFS(Included!AE5:AE49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>COUNTIFS(Included!AF5:AF49, "Extremely Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f>COUNTIFS(Included!AG5:AG49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>COUNTIFS(Included!AH5:AH49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>COUNTIFS(Included!AI5:AI49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <f>COUNTIFS(Included!AJ5:AJ49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>COUNTIFS(Included!AK5:AK49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIFS(Included!AL5:AL49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <f>COUNTIFS(Included!AM5:AM49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>COUNTIFS(Included!AN5:AN49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <f>COUNTIFS(Included!AO5:AO49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>COUNTIFS(Included!AP5:AP49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>COUNTIFS(Included!AQ5:AQ49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <f>COUNTIFS(Included!AR5:AR49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>COUNTIFS(Included!AS5:AS49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>COUNTIFS(Included!AT5:AT49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>COUNTIFS(Included!AU5:AU49, "Extremely Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <f>COUNTIFS(Included!AV5:AV49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>COUNTIFS(Included!AW5:AW49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIFS(Included!AX5:AX49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <f>COUNTIFS(Included!AY5:AY49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f>COUNTIFS(Included!AZ5:AZ49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f>COUNTIFS(Included!BA5:BA49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f>COUNTIFS(Included!BB5:BB49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f>COUNTIFS(Included!BC5:BC49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f>COUNTIFS(Included!BD5:BD49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f>COUNTIFS(Included!BE5:BE49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f>COUNTIFS(Included!BF5:BF49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <f>COUNTIFS(Included!BG5:BG49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f>COUNTIFS(Included!BH5:BH49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <f>COUNTIFS(Included!BI5:BI49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f>COUNTIFS(Included!BJ5:BJ49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <f>COUNTIFS(Included!BK5:BK49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <f>COUNTIFS(Included!BL5:BL49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f>COUNTIFS(Included!BM5:BM49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <f>COUNTIFS(Included!BN5:BN49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f>COUNTIFS(Included!BO5:BO49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <f>COUNTIFS(Included!BP5:BP49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f>COUNTIFS(Included!BQ5:BQ49, "Extremely Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <f>COUNTIFS(Included!BR5:BR49, "Extremely Inadequate")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Included!J5:J49, "Somewhat Inadequate")</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Included!K5:K49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Included!L5:L49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Included!M5:M49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Included!N5:N49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Included!O5:O49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS(Included!P5:P49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(Included!Q5:Q49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIFS(Included!R5:R49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS(Included!S5:S49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS(Included!T5:T49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS(Included!U5:U49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS(Included!V5:V49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS(Included!W5:W49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>COUNTIFS(Included!X5:X49, "Somewhat Inadequate")</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIFS(Included!Y5:Y49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>COUNTIFS(Included!Z5:Z49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIFS(Included!AA5:AA49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>COUNTIFS(Included!AB5:AB49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f>COUNTIFS(Included!AC5:AC49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>COUNTIFS(Included!AD5:AD49, "Somewhat Inadequate")</f>
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f>COUNTIFS(Included!AE5:AE49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>COUNTIFS(Included!AF5:AF49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f>COUNTIFS(Included!AG5:AG49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <f>COUNTIFS(Included!AH5:AH49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <f>COUNTIFS(Included!AI5:AI49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>COUNTIFS(Included!AJ5:AJ49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>COUNTIFS(Included!AK5:AK49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIFS(Included!AL5:AL49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <f>COUNTIFS(Included!AM5:AM49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <f>COUNTIFS(Included!AN5:AN49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <f>COUNTIFS(Included!AO5:AO49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>COUNTIFS(Included!AP5:AP49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <f>COUNTIFS(Included!AQ5:AQ49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <f>COUNTIFS(Included!AR5:AR49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <f>COUNTIFS(Included!AS5:AS49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>COUNTIFS(Included!AT5:AT49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <f>COUNTIFS(Included!AU5:AU49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>COUNTIFS(Included!AV5:AV49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>COUNTIFS(Included!AW5:AW49, "Somewhat Inadequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AP4">
+        <f>COUNTIFS(Included!AX5:AX49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <f>COUNTIFS(Included!AY5:AY49, "Somewhat Inadequate")</f>
+        <v>17</v>
+      </c>
+      <c r="AR4">
+        <f>COUNTIFS(Included!AZ5:AZ49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <f>COUNTIFS(Included!BA5:BA49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f>COUNTIFS(Included!BB5:BB49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f>COUNTIFS(Included!BC5:BC49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f>COUNTIFS(Included!BD5:BD49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f>COUNTIFS(Included!BE5:BE49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <f>COUNTIFS(Included!BF5:BF49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <f>COUNTIFS(Included!BG5:BG49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <f>COUNTIFS(Included!BH5:BH49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <f>COUNTIFS(Included!BI5:BI49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <f>COUNTIFS(Included!BJ5:BJ49, "Somewhat Inadequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <f>COUNTIFS(Included!BK5:BK49, "Somewhat Inadequate")</f>
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <f>COUNTIFS(Included!BL5:BL49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <f>COUNTIFS(Included!BM5:BM49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <f>COUNTIFS(Included!BN5:BN49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <f>COUNTIFS(Included!BO5:BO49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <f>COUNTIFS(Included!BP5:BP49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <f>COUNTIFS(Included!BQ5:BQ49, "Somewhat Inadequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <f>COUNTIFS(Included!BR5:BR49, "Somewhat Inadequate")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIFS(Included!J5:J49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS(Included!K5:K49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Included!L5:L49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Included!M5:M49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Included!N5:N49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Included!O5:O49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS(Included!P5:P49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(Included!Q5:Q49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIFS(Included!R5:R49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIFS(Included!S5:S49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIFS(Included!T5:T49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIFS(Included!U5:U49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>COUNTIFS(Included!V5:V49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIFS(Included!W5:W49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <f>COUNTIFS(Included!X5:X49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>COUNTIFS(Included!Y5:Y49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>COUNTIFS(Included!Z5:Z49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>COUNTIFS(Included!AA5:AA49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f>COUNTIFS(Included!AB5:AB49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <f>COUNTIFS(Included!AC5:AC49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>COUNTIFS(Included!AD5:AD49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f>COUNTIFS(Included!AE5:AE49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <f>COUNTIFS(Included!AF5:AF49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <f>COUNTIFS(Included!AG5:AG49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <f>COUNTIFS(Included!AH5:AH49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <f>COUNTIFS(Included!AI5:AI49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <f>COUNTIFS(Included!AJ5:AJ49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <f>COUNTIFS(Included!AK5:AK49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIFS(Included!AL5:AL49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <f>COUNTIFS(Included!AM5:AM49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <f>COUNTIFS(Included!AN5:AN49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <f>COUNTIFS(Included!AO5:AO49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>COUNTIFS(Included!AP5:AP49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIFS(Included!AQ5:AQ49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <f>COUNTIFS(Included!AR5:AR49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <f>COUNTIFS(Included!AS5:AS49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <f>COUNTIFS(Included!AT5:AT49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <f>COUNTIFS(Included!AU5:AU49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <f>COUNTIFS(Included!AV5:AV49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <f>COUNTIFS(Included!AW5:AW49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AP5">
+        <f>COUNTIFS(Included!AX5:AX49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <f>COUNTIFS(Included!AY5:AY49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f>COUNTIFS(Included!AZ5:AZ49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f>COUNTIFS(Included!BA5:BA49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f>COUNTIFS(Included!BB5:BB49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f>COUNTIFS(Included!BC5:BC49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <f>COUNTIFS(Included!BD5:BD49, "Somewhat Adequate")</f>
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <f>COUNTIFS(Included!BE5:BE49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <f>COUNTIFS(Included!BF5:BF49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <f>COUNTIFS(Included!BG5:BG49, "Somewhat Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AZ5">
+        <f>COUNTIFS(Included!BH5:BH49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <f>COUNTIFS(Included!BI5:BI49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <f>COUNTIFS(Included!BJ5:BJ49, "Somewhat Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="BC5">
+        <f>COUNTIFS(Included!BK5:BK49, "Somewhat Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <f>COUNTIFS(Included!BL5:BL49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <f>COUNTIFS(Included!BM5:BM49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BF5">
+        <f>COUNTIFS(Included!BN5:BN49, "Somewhat Adequate")</f>
+        <v>5</v>
+      </c>
+      <c r="BG5">
+        <f>COUNTIFS(Included!BO5:BO49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <f>COUNTIFS(Included!BP5:BP49, "Somewhat Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <f>COUNTIFS(Included!BQ5:BQ49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BJ5">
+        <f>COUNTIFS(Included!BR5:BR49, "Somewhat Adequate")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIFS(Included!J5:J49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS(Included!K5:K49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS(Included!L5:L49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS(Included!M5:M49, "Extremely Adequate")</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(Included!N5:N49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Included!O5:O49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS(Included!P5:P49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(Included!Q5:Q49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIFS(Included!R5:R49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS(Included!S5:S49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIFS(Included!T5:T49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIFS(Included!U5:U49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f>COUNTIFS(Included!V5:V49, "Extremely Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIFS(Included!W5:W49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f>COUNTIFS(Included!X5:X49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>COUNTIFS(Included!Y5:Y49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>COUNTIFS(Included!Z5:Z49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>COUNTIFS(Included!AA5:AA49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>COUNTIFS(Included!AB5:AB49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f>COUNTIFS(Included!AC5:AC49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <f>COUNTIFS(Included!AD5:AD49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>COUNTIFS(Included!AE5:AE49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f>COUNTIFS(Included!AF5:AF49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>COUNTIFS(Included!AG5:AG49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f>COUNTIFS(Included!AH5:AH49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <f>COUNTIFS(Included!AI5:AI49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f>COUNTIFS(Included!AJ5:AJ49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f>COUNTIFS(Included!AK5:AK49, "Extremely Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIFS(Included!AL5:AL49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <f>COUNTIFS(Included!AM5:AM49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <f>COUNTIFS(Included!AN5:AN49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>COUNTIFS(Included!AO5:AO49, "Extremely Adequate")</f>
+        <v>5</v>
+      </c>
+      <c r="AH6">
+        <f>COUNTIFS(Included!AP5:AP49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <f>COUNTIFS(Included!AQ5:AQ49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIFS(Included!AR5:AR49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <f>COUNTIFS(Included!AS5:AS49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AL6">
+        <f>COUNTIFS(Included!AT5:AT49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <f>COUNTIFS(Included!AU5:AU49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <f>COUNTIFS(Included!AV5:AV49, "Extremely Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="AO6">
+        <f>COUNTIFS(Included!AW5:AW49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <f>COUNTIFS(Included!AX5:AX49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <f>COUNTIFS(Included!AY5:AY49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f>COUNTIFS(Included!AZ5:AZ49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="AS6">
+        <f>COUNTIFS(Included!BA5:BA49, "Extremely Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <f>COUNTIFS(Included!BB5:BB49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f>COUNTIFS(Included!BC5:BC49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <f>COUNTIFS(Included!BD5:BD49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <f>COUNTIFS(Included!BE5:BE49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <f>COUNTIFS(Included!BF5:BF49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <f>COUNTIFS(Included!BG5:BG49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <f>COUNTIFS(Included!BH5:BH49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="BA6">
+        <f>COUNTIFS(Included!BI5:BI49, "Extremely Adequate")</f>
+        <v>4</v>
+      </c>
+      <c r="BB6">
+        <f>COUNTIFS(Included!BJ5:BJ49, "Extremely Adequate")</f>
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <f>COUNTIFS(Included!BK5:BK49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <f>COUNTIFS(Included!BL5:BL49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BE6">
+        <f>COUNTIFS(Included!BM5:BM49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <f>COUNTIFS(Included!BN5:BN49, "Extremely Adequate")</f>
+        <v>3</v>
+      </c>
+      <c r="BG6">
+        <f>COUNTIFS(Included!BO5:BO49, "Extremely Adequate")</f>
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <f>COUNTIFS(Included!BP5:BP49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <f>COUNTIFS(Included!BQ5:BQ49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+      <c r="BJ6">
+        <f>COUNTIFS(Included!BR5:BR49, "Extremely Adequate")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="36">
+        <f>SUM(B3,B4) / SUM(B3:B6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" ref="C7:BJ7" si="0">SUM(C3,C4) / SUM(C3:C6)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AB7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AN7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AP7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="AQ7" s="36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="AS7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="36">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AX7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="AY7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="BA7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BB7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="BC7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BD7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BE7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="BF7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BH7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="BJ7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AQ2">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>$AY$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:BJ7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E493030-D07F-4844-B15C-53B8AC396BAD}">
+  <dimension ref="B2:N42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="14" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Included!J5:S21,B3)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="19">
+        <f>C3/C$7*100</f>
+        <v>15.686274509803921</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Included!J5:S21,B4)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" ref="D4:D6" si="0">C4/C$7*100</f>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Included!J5:S21,B5)</f>
+        <v>19</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>37.254901960784316</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="19">
+        <v>31.372549019607842</v>
+      </c>
+      <c r="J5" s="19">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="K5" s="19">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L5" s="19">
+        <v>47.058823529411761</v>
+      </c>
+      <c r="M5" s="19">
+        <v>39.215686274509807</v>
+      </c>
+      <c r="N5" s="19">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Included!J5:S21,B6)</f>
+        <v>16</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>31.372549019607842</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="19">
+        <v>37.254901960784316</v>
+      </c>
+      <c r="J6" s="19">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="K6" s="19">
+        <v>37.254901960784316</v>
+      </c>
+      <c r="L6" s="19">
+        <v>29.411764705882355</v>
+      </c>
+      <c r="M6" s="19">
+        <v>43.137254901960787</v>
+      </c>
+      <c r="N6" s="19">
+        <v>37.254901960784316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C3:C6)</f>
+        <v>51</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="19">
+        <v>15.686274509803921</v>
+      </c>
+      <c r="J7" s="19">
+        <v>21.568627450980394</v>
+      </c>
+      <c r="K7" s="19">
+        <v>21.568627450980394</v>
+      </c>
+      <c r="L7" s="19">
+        <v>15.686274509803921</v>
+      </c>
+      <c r="M7" s="19">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="N7" s="19">
+        <v>19.607843137254903</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="19">
+        <v>15.686274509803921</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="L8" s="19">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="M8" s="19">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="N8" s="19">
+        <v>7.8431372549019605</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Included!T5:AC21,B10)</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="19">
+        <f>C10/C$14*100</f>
+        <v>7.8431372549019605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Included!T5:AC21,B11)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" ref="D11:D13" si="1">C11/C$14*100</f>
+        <v>21.568627450980394</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Included!T5:AC21,B12)</f>
+        <v>18</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="1"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Included!T5:AC21,B13)</f>
+        <v>18</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="1"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C10:C13)</f>
+        <v>51</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Included!AD5:AM21,B17)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="19">
+        <f>C17/C$21*100</f>
+        <v>7.8431372549019605</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Included!AD5:AM21,B18)</f>
+        <v>11</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" ref="D18:D20" si="2">C18/C$21*100</f>
+        <v>21.568627450980394</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Included!AD5:AM21,B19)</f>
+        <v>19</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="2"/>
+        <v>37.254901960784316</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Included!AD5:AM21,B20)</f>
+        <v>17</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C17:C20)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Included!AN5:AW21,B24)</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="19">
+        <f>C24/C$28*100</f>
+        <v>7.8431372549019605</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Included!AN5:AW21,B25)</f>
+        <v>8</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" ref="D25:D27" si="3">C25/C$28*100</f>
+        <v>15.686274509803921</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Included!AN5:AW21,B26)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="3"/>
+        <v>29.411764705882355</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(Included!AN5:AW21,B27)</f>
+        <v>24</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" si="3"/>
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C24:C27)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(Included!AX5:BH21,B31)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="19">
+        <f>C31/C$35*100</f>
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="18">
+        <f>COUNTIF(Included!AX5:BH21,B32) - 17</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" ref="D32:D34" si="4">C32/C$35*100</f>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(Included!AX5:BH21, B33)</f>
+        <v>22</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="4"/>
+        <v>43.137254901960787</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Included!AX5:BH21,B34)</f>
+        <v>20</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" si="4"/>
+        <v>39.215686274509807</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C31:C34)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(Included!BI5:BR21,B38)</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="19">
+        <f>C38/C$42*100</f>
+        <v>7.8431372549019605</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF(Included!BI5:BR21,B39)</f>
+        <v>10</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" ref="D39:D41" si="5">C39/C$42*100</f>
+        <v>19.607843137254903</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF(Included!BI5:BR21,B40)</f>
+        <v>19</v>
+      </c>
+      <c r="D40" s="19">
+        <f t="shared" si="5"/>
+        <v>37.254901960784316</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(Included!BI5:BR21,B41)</f>
+        <v>18</v>
+      </c>
+      <c r="D41" s="19">
+        <f t="shared" si="5"/>
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C38:C41)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984236D5-FEDA-41FB-BF72-A4D6E541FB35}">
   <dimension ref="B2:D47"/>
   <sheetViews>
@@ -15923,18 +22567,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="35.6328125" customWidth="1"/>
+    <col min="2" max="4" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>92</v>
       </c>
@@ -15943,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
       </c>
@@ -15952,7 +22596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
@@ -15961,7 +22605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -15970,13 +22614,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="33"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -15985,7 +22629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -15994,7 +22638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
@@ -16003,7 +22647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -16012,13 +22656,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -16027,7 +22671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -16036,13 +22680,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -16051,7 +22695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -16060,7 +22704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>120</v>
       </c>
@@ -16069,7 +22713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="27" t="s">
         <v>121</v>
       </c>
@@ -16077,7 +22721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>92</v>
       </c>
@@ -16088,7 +22732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>81</v>
       </c>
@@ -16099,7 +22743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
@@ -16110,7 +22754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -16134,622 +22778,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E493030-D07F-4844-B15C-53B8AC396BAD}">
-  <dimension ref="B2:N42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
-    <col min="9" max="14" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <f>COUNTIF(Data!J5:S22,B3)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="19">
-        <f>C3/C$7*100</f>
-        <v>7.4074074074074066</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(Data!J5:S22,B4)</f>
-        <v>4</v>
-      </c>
-      <c r="D4" s="19">
-        <f t="shared" ref="D4:D6" si="0">C4/C$7*100</f>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <f>COUNTIF(Data!J5:S22,B5)</f>
-        <v>25</v>
-      </c>
-      <c r="D5" s="19">
-        <f t="shared" si="0"/>
-        <v>46.296296296296298</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="19">
-        <v>31.372549019607842</v>
-      </c>
-      <c r="J5" s="19">
-        <v>35.294117647058826</v>
-      </c>
-      <c r="K5" s="19">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="L5" s="19">
-        <v>47.058823529411761</v>
-      </c>
-      <c r="M5" s="19">
-        <v>39.215686274509807</v>
-      </c>
-      <c r="N5" s="19">
-        <v>35.294117647058826</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6">
-        <f>COUNTIF(Data!J5:S22,B6)</f>
-        <v>21</v>
-      </c>
-      <c r="D6" s="19">
-        <f t="shared" si="0"/>
-        <v>38.888888888888893</v>
-      </c>
-      <c r="H6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="19">
-        <v>37.254901960784316</v>
-      </c>
-      <c r="J6" s="19">
-        <v>35.294117647058826</v>
-      </c>
-      <c r="K6" s="19">
-        <v>37.254901960784316</v>
-      </c>
-      <c r="L6" s="19">
-        <v>29.411764705882355</v>
-      </c>
-      <c r="M6" s="19">
-        <v>43.137254901960787</v>
-      </c>
-      <c r="N6" s="19">
-        <v>37.254901960784316</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C3:C6)</f>
-        <v>54</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="H7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="19">
-        <v>15.686274509803921</v>
-      </c>
-      <c r="J7" s="19">
-        <v>21.568627450980394</v>
-      </c>
-      <c r="K7" s="19">
-        <v>21.568627450980394</v>
-      </c>
-      <c r="L7" s="19">
-        <v>15.686274509803921</v>
-      </c>
-      <c r="M7" s="19">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="N7" s="19">
-        <v>19.607843137254903</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="H8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="19">
-        <v>15.686274509803921</v>
-      </c>
-      <c r="J8" s="19">
-        <v>7.8431372549019605</v>
-      </c>
-      <c r="K8" s="19">
-        <v>7.8431372549019605</v>
-      </c>
-      <c r="L8" s="19">
-        <v>7.8431372549019605</v>
-      </c>
-      <c r="M8" s="19">
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="N8" s="19">
-        <v>7.8431372549019605</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <f>COUNTIF(Data!T5:AC22,B10)</f>
-        <v>4</v>
-      </c>
-      <c r="D10" s="19">
-        <f>C10/C$14*100</f>
-        <v>7.4074074074074066</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <f>COUNTIF(Data!T5:AC22,B11)</f>
-        <v>4</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="D11:D13" si="1">C11/C$14*100</f>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12">
-        <f>COUNTIF(Data!T5:AC22,B12)</f>
-        <v>26</v>
-      </c>
-      <c r="D12" s="19">
-        <f t="shared" si="1"/>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13">
-        <f>COUNTIF(Data!T5:AC22,B13)</f>
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
-        <f t="shared" si="1"/>
-        <v>37.037037037037038</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C10:C13)</f>
-        <v>54</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <f>COUNTIF(Data!AD5:AM22,B17)</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="19">
-        <f>C17/C$21*100</f>
-        <v>3.7037037037037033</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18">
-        <f>COUNTIF(Data!AD5:AM22,B18)</f>
-        <v>5</v>
-      </c>
-      <c r="D18" s="19">
-        <f t="shared" ref="D18:D20" si="2">C18/C$21*100</f>
-        <v>9.2592592592592595</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19">
-        <f>COUNTIF(Data!AD5:AM22,B19)</f>
-        <v>26</v>
-      </c>
-      <c r="D19" s="19">
-        <f t="shared" si="2"/>
-        <v>48.148148148148145</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20">
-        <f>COUNTIF(Data!AD5:AM22,B20)</f>
-        <v>21</v>
-      </c>
-      <c r="D20" s="19">
-        <f t="shared" si="2"/>
-        <v>38.888888888888893</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C17:C20)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(Data!AN5:AW22,B24)</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="19">
-        <f>C24/C$28*100</f>
-        <v>3.7037037037037033</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(Data!AN5:AW22,B25)</f>
-        <v>6</v>
-      </c>
-      <c r="D25" s="19">
-        <f t="shared" ref="D25:D27" si="3">C25/C$28*100</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26">
-        <f>COUNTIF(Data!AN5:AW22,B26)</f>
-        <v>27</v>
-      </c>
-      <c r="D26" s="19">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(Data!AN5:AW22,B27)</f>
-        <v>19</v>
-      </c>
-      <c r="D27" s="19">
-        <f t="shared" si="3"/>
-        <v>35.185185185185183</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28">
-        <f>SUM(C24:C27)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="16"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <f>COUNTIF(Data!AX5:BH22,B31)</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="19">
-        <f>C31/C$35*100</f>
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="18">
-        <f>COUNTIF(Data!AX5:BH22,B32) - 17</f>
-        <v>4</v>
-      </c>
-      <c r="D32" s="19">
-        <f t="shared" ref="D32:D34" si="4">C32/C$35*100</f>
-        <v>7.2727272727272725</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33">
-        <f>COUNTIF(Data!AX5:BH22,B33)</f>
-        <v>28</v>
-      </c>
-      <c r="D33" s="19">
-        <f t="shared" si="4"/>
-        <v>50.909090909090907</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34">
-        <f>COUNTIF(Data!AX5:BH22,B34)</f>
-        <v>22</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35">
-        <f>SUM(C31:C34)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38">
-        <f>COUNTIF(Data!BI5:BR22,B38)</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
-        <f>C38/C$42*100</f>
-        <v>1.8518518518518516</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39">
-        <f>COUNTIF(Data!BI5:BR22,B39)</f>
-        <v>6</v>
-      </c>
-      <c r="D39" s="19">
-        <f t="shared" ref="D39:D41" si="5">C39/C$42*100</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40">
-        <f>COUNTIF(Data!BI5:BR22,B40)</f>
-        <v>25</v>
-      </c>
-      <c r="D40" s="19">
-        <f t="shared" si="5"/>
-        <v>46.296296296296298</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41">
-        <f>COUNTIF(Data!BI5:BR22,B41)</f>
-        <v>22</v>
-      </c>
-      <c r="D41" s="19">
-        <f t="shared" si="5"/>
-        <v>40.74074074074074</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C38:C41)</f>
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25A1F8F-B585-4477-B738-9EFA58F05705}">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.36328125" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
